--- a/NformTester/NformTester/Keywordscripts/600.20.20.170_UserShouldNotBeAbleToDeleteShutdownClientWhichIsMapped.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.170_UserShouldNotBeAbleToDeleteShutdownClientWhichIsMapped.xlsx
@@ -1205,7 +1205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7386" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7398" uniqueCount="851">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4096,7 +4096,49 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4127,74 +4169,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4626,7 +4600,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4903,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5114,7 +5088,7 @@
         <v>748</v>
       </c>
       <c r="B7" s="12">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -6575,15 +6549,13 @@
         <v>300</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="I62" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
@@ -6599,16 +6571,16 @@
         <v>785</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -6624,37 +6596,42 @@
         <v>785</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>847</v>
+        <v>19</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
       <c r="N64" s="20"/>
+      <c r="O64" s="27"/>
     </row>
     <row r="65" spans="3:15">
       <c r="C65" s="2">
         <v>64</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>845</v>
+        <v>785</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F65" s="18">
-        <v>5</v>
-      </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>841</v>
+      </c>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
       <c r="K65" s="18"/>
@@ -6674,7 +6651,7 @@
         <v>300</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>2</v>
@@ -6688,16 +6665,22 @@
       <c r="N66" s="20"/>
       <c r="O66" s="27"/>
     </row>
-    <row r="67" spans="3:15" ht="15">
+    <row r="67" spans="3:15">
       <c r="C67" s="2">
         <v>66</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="D67" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -6711,22 +6694,23 @@
         <v>67</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="F68" s="18">
         <v>5</v>
       </c>
       <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="H68" s="4"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="N68" s="20"/>
+      <c r="O68" s="27"/>
     </row>
     <row r="69" spans="3:15">
       <c r="C69" s="2">
@@ -6736,40 +6720,35 @@
         <v>785</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
       <c r="N69" s="20"/>
+      <c r="O69" s="27"/>
     </row>
-    <row r="70" spans="3:15">
+    <row r="70" spans="3:15" ht="15">
       <c r="C70" s="2">
         <v>69</v>
       </c>
-      <c r="D70" s="21" t="s">
-        <v>818</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="D70" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
       <c r="L70" s="18"/>
@@ -6781,20 +6760,16 @@
         <v>70</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>814</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="F71" s="18">
+        <v>5</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
@@ -6802,24 +6777,24 @@
       <c r="M71" s="18"/>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="3:15" ht="14.25">
+    <row r="72" spans="3:15">
       <c r="C72" s="2">
         <v>71</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>819</v>
+        <v>19</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G72" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="23"/>
-      <c r="I72" s="18"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
@@ -6833,17 +6808,17 @@
       <c r="D73" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="E73" s="18" t="s">
-        <v>575</v>
+      <c r="E73" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="18"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="18"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
@@ -6861,34 +6836,38 @@
         <v>819</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="3:15">
+    <row r="75" spans="3:15" ht="14.25">
       <c r="C75" s="2">
         <v>74</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>779</v>
+        <v>818</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="F75" s="18">
-        <v>3</v>
-      </c>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+        <v>819</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="23"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
@@ -6896,35 +6875,105 @@
       <c r="M75" s="18"/>
       <c r="N75" s="20"/>
     </row>
+    <row r="76" spans="3:15">
+      <c r="C76" s="2">
+        <v>75</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="20"/>
+    </row>
+    <row r="77" spans="3:15">
+      <c r="C77" s="2">
+        <v>76</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="20"/>
+    </row>
+    <row r="78" spans="3:15">
+      <c r="C78" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F78" s="18">
+        <v>3</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N75">
-    <cfRule type="cellIs" dxfId="3" priority="35" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N78">
+    <cfRule type="cellIs" dxfId="9" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N64">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N67">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D75 D69 D64 D45:D48 D33:D43 D3 D7:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D78 D72 D67 D45:D48 D33:D43 D3 D7:D31">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G75 G2:G70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G75:G78 G2:G73">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F78">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E78">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.170_UserShouldNotBeAbleToDeleteShutdownClientWhichIsMapped.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.170_UserShouldNotBeAbleToDeleteShutdownClientWhichIsMapped.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1200,12 +1200,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7398" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7400" uniqueCount="851">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3663,10 +3663,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3821,6 +3817,10 @@
   </si>
   <si>
     <t>Equal</t>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4091,40 +4091,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4593,7 +4565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4877,10 +4849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4896,10 +4868,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>746</v>
@@ -4941,10 +4913,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>831</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>832</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4966,10 +4938,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>833</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>834</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -5001,16 +4973,16 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>835</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>836</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -5026,7 +4998,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B5" s="14">
         <v>41718</v>
@@ -5035,23 +5007,23 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>569</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>827</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>828</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -5060,10 +5032,10 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>838</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -5088,7 +5060,7 @@
         <v>748</v>
       </c>
       <c r="B7" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -5116,7 +5088,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="2">
@@ -5145,7 +5117,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="2">
@@ -5255,7 +5227,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -5404,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
@@ -5613,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -5803,7 +5775,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="18"/>
@@ -5881,7 +5853,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5958,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -5980,10 +5952,10 @@
         <v>387</v>
       </c>
       <c r="G39" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>810</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>811</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -6003,13 +5975,13 @@
         <v>385</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -6095,7 +6067,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="18"/>
@@ -6144,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>2</v>
@@ -6178,7 +6150,7 @@
         <v>789</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J47" s="18" t="b">
         <v>0</v>
@@ -6219,7 +6191,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
@@ -6299,7 +6271,7 @@
         <v>56</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -6351,7 +6323,7 @@
         <v>56</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="18"/>
@@ -6428,7 +6400,7 @@
         <v>56</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="18"/>
@@ -6568,19 +6540,17 @@
         <v>62</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>785</v>
+        <v>844</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>2</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="F63" s="18">
+        <v>2</v>
+      </c>
+      <c r="G63" s="18"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -6599,12 +6569,12 @@
         <v>19</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="18"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
@@ -6621,18 +6591,16 @@
         <v>785</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="I65" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="18"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
@@ -6651,12 +6619,14 @@
         <v>300</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>840</v>
+      </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
@@ -6673,10 +6643,10 @@
         <v>785</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>847</v>
+        <v>300</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>2</v>
@@ -6688,47 +6658,47 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
       <c r="N67" s="20"/>
+      <c r="O67" s="27"/>
     </row>
     <row r="68" spans="3:15">
       <c r="C68" s="2">
         <v>67</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>845</v>
+        <v>785</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="F68" s="18">
-        <v>5</v>
-      </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="4"/>
+      <c r="F68" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="N68" s="20"/>
-      <c r="O68" s="27"/>
     </row>
     <row r="69" spans="3:15">
       <c r="C69" s="2">
         <v>68</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>785</v>
+        <v>844</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="18"/>
+        <v>845</v>
+      </c>
+      <c r="F69" s="18">
+        <v>5</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
@@ -6737,16 +6707,22 @@
       <c r="N69" s="20"/>
       <c r="O69" s="27"/>
     </row>
-    <row r="70" spans="3:15" ht="15">
+    <row r="70" spans="3:15">
       <c r="C70" s="2">
         <v>69</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="D70" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
@@ -6754,20 +6730,17 @@
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
       <c r="N70" s="20"/>
+      <c r="O70" s="27"/>
     </row>
-    <row r="71" spans="3:15">
+    <row r="71" spans="3:15" ht="15">
       <c r="C71" s="2">
         <v>70</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>816</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="F71" s="18">
-        <v>5</v>
-      </c>
+      <c r="D71" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
@@ -6782,19 +6755,17 @@
         <v>71</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+        <v>816</v>
+      </c>
+      <c r="F72" s="18">
+        <v>5</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
@@ -6806,13 +6777,13 @@
         <v>72</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>2</v>
@@ -6830,44 +6801,44 @@
         <v>73</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>819</v>
+        <v>19</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>570</v>
+        <v>74</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="I74" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="3:15" ht="14.25">
+    <row r="75" spans="3:15">
       <c r="C75" s="2">
         <v>74</v>
       </c>
       <c r="D75" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>819</v>
-      </c>
       <c r="F75" s="18" t="s">
-        <v>178</v>
+        <v>570</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>813</v>
+      </c>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
@@ -6875,23 +6846,23 @@
       <c r="M75" s="18"/>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="3:15">
+    <row r="76" spans="3:15" ht="14.25">
       <c r="C76" s="2">
         <v>75</v>
       </c>
       <c r="D76" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="E76" s="18" t="s">
-        <v>575</v>
-      </c>
       <c r="F76" s="18" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="23"/>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
@@ -6904,19 +6875,19 @@
         <v>76</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>818</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>575</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="I77" s="18"/>
       <c r="J77" s="18"/>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
@@ -6928,52 +6899,76 @@
         <v>77</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>779</v>
+        <v>817</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="F78" s="18">
-        <v>3</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
+        <v>818</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="18"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
       <c r="N78" s="20"/>
     </row>
+    <row r="79" spans="3:15">
+      <c r="C79" s="2">
+        <v>78</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="F79" s="18">
+        <v>3</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N78">
-    <cfRule type="cellIs" dxfId="9" priority="35" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N79">
+    <cfRule type="cellIs" dxfId="5" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N67">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N68">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D78 D72 D67 D45:D48 D33:D43 D3 D7:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D79 D73 D68 D45:D48 D33:D43 D3 D7:D31">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G75:G78 G2:G73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76:G79 G2:G74">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F79">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E79">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
